--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -96,7 +96,7 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-006</t>
+    <t>2020-007</t>
   </si>
   <si>
     <t>Date:</t>
@@ -117,25 +117,25 @@
     <t>purpose (s).</t>
   </si>
   <si>
-    <t>Test for system</t>
+    <t>RO</t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
-    <t>Regional Office</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
     <t>07:00:00</t>
   </si>
   <si>
+    <t>May 01, 2020</t>
+  </si>
+  <si>
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>17:00:00</t>
+    <t>18:00:00</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -279,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -340,29 +340,32 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +855,7 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -863,7 +866,7 @@
     <col min="5" max="5" width="10.42578125" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.28515625" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.140625" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8" customWidth="true" style="0"/>
+    <col min="8" max="8" width="3.140625" customWidth="true" style="0"/>
     <col min="11" max="11" width="9.140625" customWidth="true" style="0"/>
     <col min="12" max="12" width="13.42578125" customWidth="true" style="0"/>
   </cols>
@@ -913,29 +916,29 @@
       <c r="I12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="24"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:12">
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="16" spans="1:12" customHeight="1" ht="15.75">
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="2" t="s">
         <v>14</v>
       </c>
@@ -944,50 +947,50 @@
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="19" spans="1:12" customHeight="1" ht="15.75">
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="D19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="4"/>
       <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="21" spans="1:12" customHeight="1" ht="15.75">
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="D21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
       <c r="I21" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="24" spans="1:12">
       <c r="I24" t="s">
@@ -995,12 +998,12 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="5" t="s">
@@ -1014,11 +1017,11 @@
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="17"/>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1122,10 +1125,10 @@
       <c r="I50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="20"/>
+      <c r="K50" s="26"/>
       <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12">
@@ -1139,10 +1142,10 @@
       <c r="I51" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="20"/>
+      <c r="K51" s="26"/>
       <c r="L51" s="8"/>
     </row>
     <row r="52" spans="1:12">
@@ -1178,11 +1181,11 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
       <c r="I54" s="8" t="s">
         <v>14</v>
       </c>
@@ -1194,14 +1197,14 @@
       <c r="B55" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -1225,21 +1228,21 @@
         <v>17</v>
       </c>
       <c r="C57" s="8"/>
-      <c r="D57" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
+      <c r="D57" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="12"/>
       <c r="I57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" s="20"/>
+      <c r="L57" s="26"/>
     </row>
     <row r="58" spans="1:12">
       <c r="B58" s="8"/>
@@ -1259,21 +1262,21 @@
         <v>10</v>
       </c>
       <c r="C59" s="8"/>
-      <c r="D59" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="D59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J59" s="8"/>
-      <c r="K59" s="20" t="s">
+      <c r="K59" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L59" s="20"/>
+      <c r="L59" s="26"/>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" s="8"/>
@@ -1337,12 +1340,12 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="20" t="s">
+      <c r="I64" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
     </row>
     <row r="65" spans="1:12">
       <c r="B65" s="10" t="s">
@@ -1389,11 +1392,11 @@
     </row>
     <row r="68" spans="1:12">
       <c r="B68" s="18"/>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="19"/>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="8"/>
@@ -1468,14 +1471,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="K59:L59"/>
     <mergeCell ref="I64:L64"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D57:G57"/>
@@ -1488,6 +1485,12 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="I26:L26"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -32,62 +32,10 @@
     <t>City of Calamba, Laguna</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Tel: (049)8274755/(049)8274587/(049)8274560 </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">•</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Bookman Old Style"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">  Fax: (049) 8274745</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Email: dilgcalabarzon@yahoo.com   </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">•</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Bookman Old Style"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">  Website: www.calabarzon.dilg.gov.ph</t>
-    </r>
+    <t>Tel: (049)8274755/(049)8274587/(049)8274560 •  Fax: (049) 8274745</t>
+  </si>
+  <si>
+    <t>Email: dilgcalabarzon@yahoo.com   •  Website: www.calabarzon.dilg.gov.ph</t>
   </si>
   <si>
     <t>PERMIT TO LEAVE THE OFFICE</t>
@@ -102,7 +50,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>April 30, 2020</t>
+    <t>May 04, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
@@ -166,9 +114,6 @@
   </si>
   <si>
     <t>------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>Èmployee's Copy</t>
   </si>
 </sst>
 </file>
@@ -176,18 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -227,27 +163,9 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Sylfen"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Sylfen"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Bookman Old Style"/>
+      <name val="Sylfaen"/>
     </font>
     <font>
       <b val="1"/>
@@ -256,7 +174,7 @@
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Bookman Old Style"/>
+      <name val="Sylfaen"/>
     </font>
   </fonts>
   <fills count="3">
@@ -279,59 +197,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -340,31 +228,25 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -382,19 +264,49 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1009650" cy="1009650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 9" descr=""/>
+        <xdr:cNvPr id="1" name="Picture 6" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1238250" cy="885825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 7" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -418,37 +330,7 @@
     <xdr:ext cx="1009650" cy="1009650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="466725" cy="290513"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="test_img" descr="test_img"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -470,15 +352,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="466725" cy="290513"/>
+    <xdr:ext cx="1238250" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="test_img" descr="test_img"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -502,7 +384,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466725" cy="290513"/>
@@ -532,7 +414,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466725" cy="290513"/>
@@ -545,6 +427,66 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466725" cy="290513"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466725" cy="290513"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -852,10 +794,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -873,628 +815,980 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="B2"/>
-      <c r="G2" s="14" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="G3" s="15" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="G5" s="14" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="G6" s="14" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="G7" s="14" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="G8" s="14" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="I12" s="1" t="s">
+    <row r="12" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="I13" s="1" t="s">
+      <c r="K12" s="12"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="24"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" customHeight="1" ht="15.75">
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="2" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="B17" s="3" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" customHeight="1" ht="15.75">
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="24"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" customHeight="1" ht="15.75">
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="I21" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="I24" t="s">
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="I26" s="24" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="B27" s="5" t="s">
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" customHeight="1" ht="15.75">
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="B30" s="17"/>
-      <c r="C30" s="21" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A30" s="1"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="22" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" customHeight="1" ht="15.75">
-      <c r="I31" s="6" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="I33" s="1" t="s">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" customHeight="1" ht="15.75">
-      <c r="I34" s="2" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="G39" s="14" t="s">
+      <c r="B39"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="B40"/>
-      <c r="G40" s="15" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="G41" s="15" t="s">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="G42" s="14" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="G43" s="14" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="G44" s="14" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="G45" s="14" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="16" t="s">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="E47" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="11" t="s">
+    </row>
+    <row r="49" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="26" t="s">
+      <c r="J49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="26"/>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="11" t="s">
+      <c r="K49" s="12"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="26" t="s">
+      <c r="J50" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="26"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8" t="s">
+      <c r="K50" s="13"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="28" t="s">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="8" t="s">
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="B55" s="9" t="s">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="B57" s="8" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="27" t="s">
+      <c r="C56" s="1"/>
+      <c r="D56" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="8" t="s">
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="26" t="s">
+      <c r="J56" s="1"/>
+      <c r="K56" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L57" s="26"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="B59" s="8" t="s">
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="26" t="s">
+      <c r="C58" s="1"/>
+      <c r="D58" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="26" t="s">
+      <c r="J58" s="1"/>
+      <c r="K58" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L59" s="26"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="26" t="s">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="B65" s="10" t="s">
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+    </row>
+    <row r="64" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A64" s="1"/>
+      <c r="B64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="B66" s="11" t="s">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A65" s="1"/>
+      <c r="B65" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="B68" s="18"/>
-      <c r="C68" s="20" t="s">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A67" s="1"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20" t="s">
+      <c r="D67" s="16"/>
+      <c r="E67" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="11" t="s">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="11" t="s">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8" t="s">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-    </row>
-    <row r="73" spans="1:12" customHeight="1" ht="15.75">
-      <c r="B73" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" customHeight="1" ht="15.75">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
     </row>
   </sheetData>
   <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="K58:L58"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D57:G57"/>
     <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="K57:L57"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="I26:L26"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="I63:L63"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="67" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="68" fitToHeight="1" fitToWidth="0"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -237,17 +237,17 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +797,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I70" sqref="I70"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -809,6 +809,8 @@
     <col min="6" max="6" width="13.28515625" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.140625" customWidth="true" style="0"/>
     <col min="8" max="8" width="3.140625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="0"/>
     <col min="11" max="11" width="9.140625" customWidth="true" style="0"/>
     <col min="12" max="12" width="13.42578125" customWidth="true" style="0"/>
   </cols>
@@ -908,10 +910,10 @@
       <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" customHeight="1" ht="15.75">
@@ -926,10 +928,10 @@
       <c r="I13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" customHeight="1" ht="15.75">
@@ -968,11 +970,11 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,14 +987,14 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1018,21 +1020,21 @@
         <v>17</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="13"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" customHeight="1" ht="15.75">
       <c r="A20" s="1"/>
@@ -1054,21 +1056,21 @@
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="13"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" customHeight="1" ht="15.75">
       <c r="A22" s="1"/>
@@ -1137,12 +1139,12 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
@@ -1192,11 +1194,11 @@
     </row>
     <row r="30" spans="1:12" customHeight="1" ht="15.75">
       <c r="A30" s="1"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="11" t="s">
         <v>27</v>
       </c>
@@ -1386,10 +1388,10 @@
       <c r="I49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="12"/>
+      <c r="K49" s="14"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" customHeight="1" ht="15.75">
@@ -1404,10 +1406,10 @@
       <c r="I50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="13"/>
+      <c r="K50" s="15"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" customHeight="1" ht="15.75">
@@ -1446,11 +1448,11 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="1" t="s">
         <v>14</v>
       </c>
@@ -1463,14 +1465,14 @@
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1496,21 +1498,21 @@
         <v>17</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="12"/>
       <c r="I56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="13" t="s">
+      <c r="K56" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="13"/>
+      <c r="L56" s="15"/>
     </row>
     <row r="57" spans="1:12" customHeight="1" ht="15.75">
       <c r="A57" s="1"/>
@@ -1532,21 +1534,21 @@
         <v>10</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L58" s="13"/>
+      <c r="L58" s="15"/>
     </row>
     <row r="59" spans="1:12" customHeight="1" ht="15.75">
       <c r="A59" s="1"/>
@@ -1615,12 +1617,12 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="13" t="s">
+      <c r="I63" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
     </row>
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
@@ -1670,11 +1672,11 @@
     </row>
     <row r="67" spans="1:12" customHeight="1" ht="15.75">
       <c r="A67" s="1"/>
-      <c r="B67" s="16"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="16"/>
+      <c r="D67" s="13"/>
       <c r="E67" s="11" t="s">
         <v>27</v>
       </c>
@@ -1767,24 +1769,24 @@
   </sheetData>
   <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I26:L26"/>
     <mergeCell ref="F53:H53"/>
     <mergeCell ref="C54:H54"/>
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="K58:L58"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="J49:K49"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I63:L63"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -444,7 +444,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466725" cy="290513"/>
@@ -474,7 +474,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466725" cy="290513"/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -121,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -176,6 +176,15 @@
       <color rgb="FF000000"/>
       <name val="Sylfaen"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF595959"/>
+      <name val="Sylfaen"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -225,9 +234,6 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -240,14 +246,17 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +806,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -819,7 +828,7 @@
       <c r="B2"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="7"/>
@@ -852,7 +861,7 @@
     <row r="5" spans="1:12">
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="7"/>
@@ -863,7 +872,7 @@
     <row r="6" spans="1:12">
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="7"/>
@@ -874,7 +883,7 @@
     <row r="7" spans="1:12">
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="7"/>
@@ -885,7 +894,7 @@
     <row r="8" spans="1:12">
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="7"/>
@@ -894,7 +903,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -910,10 +919,10 @@
       <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" customHeight="1" ht="15.75">
@@ -928,10 +937,10 @@
       <c r="I13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" customHeight="1" ht="15.75">
@@ -970,11 +979,11 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
@@ -987,14 +996,14 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1020,21 +1029,21 @@
         <v>17</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="12"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="15"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" customHeight="1" ht="15.75">
       <c r="A20" s="1"/>
@@ -1056,21 +1065,21 @@
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" customHeight="1" ht="15.75">
       <c r="A22" s="1"/>
@@ -1139,12 +1148,12 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
@@ -1194,12 +1203,12 @@
     </row>
     <row r="30" spans="1:12" customHeight="1" ht="15.75">
       <c r="A30" s="1"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F30" s="1"/>
@@ -1297,7 +1306,7 @@
       <c r="B39"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G39" s="7"/>
@@ -1330,7 +1339,7 @@
     <row r="42" spans="1:12">
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G42" s="7"/>
@@ -1341,7 +1350,7 @@
     <row r="43" spans="1:12">
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G43" s="7"/>
@@ -1352,7 +1361,7 @@
     <row r="44" spans="1:12">
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="7"/>
@@ -1363,7 +1372,7 @@
     <row r="45" spans="1:12">
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="7"/>
@@ -1372,7 +1381,7 @@
       <c r="J45" s="7"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1388,10 +1397,10 @@
       <c r="I49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="14" t="s">
+      <c r="J49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K49" s="14"/>
+      <c r="K49" s="15"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" customHeight="1" ht="15.75">
@@ -1406,10 +1415,10 @@
       <c r="I50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="15" t="s">
+      <c r="J50" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="15"/>
+      <c r="K50" s="13"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" customHeight="1" ht="15.75">
@@ -1448,11 +1457,11 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
       <c r="I53" s="1" t="s">
         <v>14</v>
       </c>
@@ -1465,14 +1474,14 @@
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1498,21 +1507,21 @@
         <v>17</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="12"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="15" t="s">
+      <c r="K56" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="15"/>
+      <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:12" customHeight="1" ht="15.75">
       <c r="A57" s="1"/>
@@ -1534,21 +1543,21 @@
         <v>10</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="15" t="s">
+      <c r="K58" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L58" s="15"/>
+      <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:12" customHeight="1" ht="15.75">
       <c r="A59" s="1"/>
@@ -1617,12 +1626,12 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="15" t="s">
+      <c r="I63" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
     </row>
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
@@ -1672,12 +1681,12 @@
     </row>
     <row r="67" spans="1:12" customHeight="1" ht="15.75">
       <c r="A67" s="1"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="12"/>
+      <c r="C67" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="11" t="s">
+      <c r="D67" s="12"/>
+      <c r="E67" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F67" s="1"/>
@@ -1769,6 +1778,12 @@
   </sheetData>
   <sheetProtection password="DD3C" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="D19:G19"/>
     <mergeCell ref="I63:L63"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="D21:F21"/>
@@ -1781,12 +1796,6 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="K58:L58"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="D19:G19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -44,13 +44,13 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-007</t>
+    <t>2020-006</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>May 04, 2020</t>
+    <t>April 30, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
@@ -65,25 +65,25 @@
     <t>purpose (s).</t>
   </si>
   <si>
-    <t>RO</t>
+    <t>Test for system</t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
+    <t>Regional Office</t>
+  </si>
+  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
     <t>07:00:00</t>
   </si>
   <si>
-    <t>May 01, 2020</t>
-  </si>
-  <si>
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>18:00:00</t>
+    <t>17:00:00</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -1030,18 +1030,18 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -1508,18 +1508,18 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="11"/>
       <c r="I56" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L56" s="13"/>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -44,13 +44,13 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-006</t>
+    <t>2020-007</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>April 30, 2020</t>
+    <t>May 04, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
@@ -65,25 +65,25 @@
     <t>purpose (s).</t>
   </si>
   <si>
-    <t>Test for system</t>
+    <t>RO</t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
-    <t>Regional Office</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
     <t>07:00:00</t>
   </si>
   <si>
+    <t>May 01, 2020</t>
+  </si>
+  <si>
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>17:00:00</t>
+    <t>18:00:00</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -1030,18 +1030,18 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -1508,18 +1508,18 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="11"/>
       <c r="I56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L56" s="13"/>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -44,13 +44,13 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-006</t>
+    <t>2020-007</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>April 30, 2020</t>
+    <t>May 04, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
@@ -65,25 +65,25 @@
     <t>purpose (s).</t>
   </si>
   <si>
-    <t>Test for system</t>
+    <t>RO</t>
   </si>
   <si>
     <t>Place to be visited:</t>
   </si>
   <si>
-    <t>Regional Office</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
     <t>07:00:00</t>
   </si>
   <si>
+    <t>May 01, 2020</t>
+  </si>
+  <si>
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>17:00:00</t>
+    <t>18:00:00</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>Approved:</t>
-  </si>
-  <si>
-    <t>Dr. Carina S. Cruz</t>
-  </si>
-  <si>
-    <t>CAO/FAD-Chief</t>
   </si>
   <si>
     <t>Copy for Personnel Section, FAD</t>
@@ -1030,18 +1024,18 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1066,7 +1060,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -1258,9 +1252,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1274,9 +1266,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1284,7 +1274,7 @@
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1299,7 +1289,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1508,18 +1498,18 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="11"/>
       <c r="I56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L56" s="13"/>
     </row>
@@ -1544,7 +1534,7 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
@@ -1736,9 +1726,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="I70" s="4"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -1752,9 +1740,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -1762,7 +1748,7 @@
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Approved:</t>
+  </si>
+  <si>
+    <t>Dr. Carina S. Cruz</t>
+  </si>
+  <si>
+    <t>CAO/FAD-Chief</t>
   </si>
   <si>
     <t>Copy for Personnel Section, FAD</t>
@@ -1252,7 +1258,9 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1266,7 +1274,9 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1274,7 +1284,7 @@
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1289,7 +1299,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1726,7 +1736,9 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="4"/>
+      <c r="I70" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -1740,7 +1752,9 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -1748,7 +1762,7 @@
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>Approved:</t>
-  </si>
-  <si>
-    <t>Dr. Carina S. Cruz</t>
-  </si>
-  <si>
-    <t>CAO/FAD-Chief</t>
   </si>
   <si>
     <t>Copy for Personnel Section, FAD</t>
@@ -1258,9 +1252,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1274,9 +1266,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1284,7 +1274,7 @@
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1299,7 +1289,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1736,9 +1726,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="I70" s="4"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -1752,9 +1740,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -1762,7 +1748,7 @@
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -396,7 +396,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="466725" cy="290513"/>
+    <xdr:ext cx="295275" cy="290513"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="test_img" descr="test_img"/>
@@ -426,7 +426,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="466725" cy="290513"/>
+    <xdr:ext cx="295275" cy="290513"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="test_img" descr="test_img"/>
@@ -456,7 +456,7 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="466725" cy="290513"/>
+    <xdr:ext cx="295275" cy="290513"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="test_img" descr="test_img"/>
@@ -486,7 +486,7 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="466725" cy="290513"/>
+    <xdr:ext cx="295275" cy="290513"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="test_img" descr="test_img"/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -396,7 +396,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="295275" cy="290513"/>
+    <xdr:ext cx="466725" cy="290513"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="test_img" descr="test_img"/>
@@ -426,7 +426,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="295275" cy="290513"/>
+    <xdr:ext cx="466725" cy="290513"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="test_img" descr="test_img"/>
@@ -456,7 +456,7 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="295275" cy="290513"/>
+    <xdr:ext cx="466725" cy="290513"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="test_img" descr="test_img"/>
@@ -486,7 +486,7 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="295275" cy="290513"/>
+    <xdr:ext cx="466725" cy="290513"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="test_img" descr="test_img"/>

--- a/OfficialBusinessExport.xlsx
+++ b/OfficialBusinessExport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -44,19 +44,19 @@
     <t>No.</t>
   </si>
   <si>
-    <t>2020-007</t>
+    <t>2020-002</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>May 04, 2020</t>
+    <t>April 28, 2020</t>
   </si>
   <si>
     <t>Permission is requested by Mr./Ms.</t>
   </si>
   <si>
-    <t>Christian Paul  Ferrer</t>
+    <t>Christian Paul V Ferrer</t>
   </si>
   <si>
     <t xml:space="preserve">to leave the office for the following </t>
@@ -65,25 +65,28 @@
     <t>purpose (s).</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Place to be visited:</t>
+  </si>
+  <si>
     <t>RO</t>
   </si>
   <si>
-    <t>Place to be visited:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time of Departure: </t>
   </si>
   <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>May 01, 2020</t>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>April 30, 2020</t>
   </si>
   <si>
     <t>Time of Return:</t>
   </si>
   <si>
-    <t>18:00:00</t>
+    <t>UC</t>
   </si>
   <si>
     <t>Signature of Requesting Employee (s)</t>
@@ -1030,18 +1033,18 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -1066,18 +1069,18 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="13"/>
     </row>
@@ -1119,7 +1122,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1158,7 +1161,7 @@
     <row r="27" spans="1:12" customHeight="1" ht="15.75">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1174,7 +1177,7 @@
     <row r="28" spans="1:12" customHeight="1" ht="15.75">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1205,11 +1208,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
       <c r="C30" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1229,7 +1232,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1259,7 +1262,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1275,7 +1278,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1284,7 +1287,7 @@
     <row r="35" spans="1:12" customHeight="1" ht="15.75">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1299,7 +1302,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1508,18 +1511,18 @@
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="11"/>
       <c r="I56" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L56" s="13"/>
     </row>
@@ -1544,18 +1547,18 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L58" s="13"/>
     </row>
@@ -1597,7 +1600,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -1636,7 +1639,7 @@
     <row r="64" spans="1:12" customHeight="1" ht="15.75">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1652,7 +1655,7 @@
     <row r="65" spans="1:12" customHeight="1" ht="15.75">
       <c r="A65" s="1"/>
       <c r="B65" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1683,11 +1686,11 @@
       <c r="A67" s="1"/>
       <c r="B67" s="12"/>
       <c r="C67" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1707,7 +1710,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -1737,7 +1740,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -1753,7 +1756,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -1762,7 +1765,7 @@
     <row r="72" spans="1:12" customHeight="1" ht="15.75">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
